--- a/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
+++ b/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Тип вагона</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Трубовоз мал</t>
   </si>
   <si>
     <t>1v</t>
@@ -607,7 +604,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,7 +639,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>3</v>
@@ -725,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>

--- a/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
+++ b/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4896" windowHeight="768"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4896" windowHeight="768" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Виды вагонов" sheetId="1" r:id="rId1"/>
+    <sheet name="Статусы вагонов" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Тип вагона</t>
   </si>
@@ -94,6 +95,54 @@
   </si>
   <si>
     <t>1v</t>
+  </si>
+  <si>
+    <t>Наименование статуса</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Вагоны, которые находятся в заявках</t>
+  </si>
+  <si>
+    <t>Вагоны, которые загружаются на грузовом фронте</t>
+  </si>
+  <si>
+    <t>Вагоны, которые разгружаются на грузовом фронте</t>
+  </si>
+  <si>
+    <t>Вагоны, операции с которыми на грузовых фронтах завершились</t>
+  </si>
+  <si>
+    <t>Вагоны, которые не находятся в заявках</t>
+  </si>
+  <si>
+    <t>Вагоны, котрые загружены продукцией, но не предназначены для отправки</t>
+  </si>
+  <si>
+    <t>Не технологические ожидания</t>
+  </si>
+  <si>
+    <t>Вагоны, готовые к отправлению на сеть АО «РЖД», подготовка перевозочных документов, не востребованные</t>
+  </si>
+  <si>
+    <t>Ожидание отправки на грузовой фронт</t>
+  </si>
+  <si>
+    <t>Ожидание уборки с грузового фронта</t>
+  </si>
+  <si>
+    <t>Ожидание погрузки на грузовом фронте</t>
+  </si>
+  <si>
+    <t>Ожидание разгрузки на грузовом фронте</t>
+  </si>
+  <si>
+    <t>Ожидание отправки со станции</t>
+  </si>
+  <si>
+    <t>Технологическое ожидание (склад на колесах)</t>
   </si>
 </sst>
 </file>
@@ -109,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +201,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -300,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -321,6 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -603,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,4 +917,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="67.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
+++ b/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4896" windowHeight="768" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4896" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Виды вагонов" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Тип вагона</t>
   </si>
@@ -94,9 +94,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>1v</t>
-  </si>
-  <si>
     <t>Наименование статуса</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>Вагоны, котрые загружены продукцией, но не предназначены для отправки</t>
   </si>
   <si>
-    <t>Не технологические ожидания</t>
-  </si>
-  <si>
     <t>Вагоны, готовые к отправлению на сеть АО «РЖД», подготовка перевозочных документов, не востребованные</t>
   </si>
   <si>
@@ -133,16 +127,28 @@
     <t>Ожидание уборки с грузового фронта</t>
   </si>
   <si>
-    <t>Ожидание погрузки на грузовом фронте</t>
-  </si>
-  <si>
-    <t>Ожидание разгрузки на грузовом фронте</t>
-  </si>
-  <si>
     <t>Ожидание отправки со станции</t>
   </si>
   <si>
-    <t>Технологическое ожидание (склад на колесах)</t>
+    <t>Вес на прибытие, т</t>
+  </si>
+  <si>
+    <t>Вес на отправку, т</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-132 </t>
+  </si>
+  <si>
+    <t>Выгрузка</t>
+  </si>
+  <si>
+    <t>Разгрузка</t>
+  </si>
+  <si>
+    <t>Технологическое ожидание</t>
+  </si>
+  <si>
+    <t>Не технологическое ожидание</t>
   </si>
 </sst>
 </file>
@@ -657,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,9 +677,11 @@
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,11 +697,17 @@
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
@@ -709,11 +723,17 @@
       <c r="E2" s="1">
         <v>31.5</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="1">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -729,11 +749,17 @@
       <c r="E3" s="1">
         <v>32</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -749,11 +775,17 @@
       <c r="E4" s="1">
         <v>32</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
@@ -769,16 +801,22 @@
       <c r="E5" s="1">
         <v>32</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -789,11 +827,17 @@
       <c r="E6" s="1">
         <v>23</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -809,11 +853,17 @@
       <c r="E7" s="1">
         <v>28</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
@@ -829,11 +879,17 @@
       <c r="E8" s="1">
         <v>28</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -849,11 +905,17 @@
       <c r="E9" s="1">
         <v>90</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2680</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
@@ -869,11 +931,17 @@
       <c r="E10" s="1">
         <v>120</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2680</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
@@ -889,11 +957,17 @@
       <c r="E11" s="1">
         <v>126</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2680</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
@@ -909,8 +983,14 @@
       <c r="E12" s="6">
         <v>80</v>
       </c>
-      <c r="F12" s="7">
-        <v>0</v>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1040</v>
+      </c>
+      <c r="H12" s="7">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -923,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,66 +1015,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
+++ b/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4896" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4896" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Виды вагонов" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t xml:space="preserve">12-132 </t>
   </si>
   <si>
-    <t>Выгрузка</t>
-  </si>
-  <si>
     <t>Разгрузка</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>Не технологическое ожидание</t>
+  </si>
+  <si>
+    <t>Загрузка</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1003,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>

--- a/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
+++ b/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4896" windowHeight="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4896" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Виды вагонов" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Тип вагона</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Загрузка</t>
+  </si>
+  <si>
+    <t>13-49t8</t>
   </si>
 </sst>
 </file>
@@ -663,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -812,49 +815,49 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>26.22</v>
+      </c>
+      <c r="E6" s="1">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1">
+        <v>94</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <v>14</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>23</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F7" s="1">
         <v>91</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>14.62</v>
-      </c>
-      <c r="E7" s="1">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1">
-        <v>94</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -868,10 +871,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>14.62</v>
@@ -890,29 +893,29 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>19</v>
+      <c r="A9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
-        <v>16</v>
+        <v>14.62</v>
       </c>
       <c r="E9" s="1">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G9" s="1">
-        <v>2680</v>
-      </c>
-      <c r="H9" s="5">
-        <v>2000</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -920,16 +923,16 @@
         <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -946,16 +949,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1">
-        <v>16.899999999999999</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -967,29 +970,55 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>126</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2680</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>12.6</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>80</v>
       </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
         <v>1040</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="7">
         <v>780</v>
       </c>
     </row>
@@ -1003,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
+++ b/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
+++ b/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
@@ -669,7 +669,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,7 +935,7 @@
         <v>90</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1">
         <v>2680</v>
@@ -961,7 +961,7 @@
         <v>120</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G11" s="1">
         <v>2680</v>
@@ -987,7 +987,7 @@
         <v>126</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="G12" s="1">
         <v>2680</v>
@@ -1013,7 +1013,7 @@
         <v>80</v>
       </c>
       <c r="F13" s="6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G13" s="6">
         <v>1040</v>

--- a/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
+++ b/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
@@ -669,7 +669,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
+++ b/motmos_zd/Справочники/Вагоны и локомотивы.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Тип вагона</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>13-49t8</t>
+  </si>
+  <si>
+    <t>Максимальная длина на отправку, м</t>
+  </si>
+  <si>
+    <t>Максимальная длина на прибытие, м</t>
   </si>
 </sst>
 </file>
@@ -364,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -372,7 +378,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -386,6 +391,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -666,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,9 +691,11 @@
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -706,15 +717,21 @@
       <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="I1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -735,12 +752,18 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -761,12 +784,18 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -787,12 +816,18 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -813,12 +848,18 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -839,12 +880,18 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -865,12 +912,18 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -891,12 +944,18 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -917,12 +976,18 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -940,15 +1005,21 @@
       <c r="G10" s="1">
         <v>2680</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="I10" s="20">
+        <v>630</v>
+      </c>
+      <c r="J10" s="21">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -966,15 +1037,21 @@
       <c r="G11" s="1">
         <v>2680</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="I11" s="20">
+        <v>630</v>
+      </c>
+      <c r="J11" s="21">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -992,15 +1069,21 @@
       <c r="G12" s="1">
         <v>2680</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="I12" s="20">
+        <v>630</v>
+      </c>
+      <c r="J12" s="21">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -1018,8 +1101,14 @@
       <c r="G13" s="6">
         <v>1040</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>780</v>
+      </c>
+      <c r="I13" s="22">
+        <v>630</v>
+      </c>
+      <c r="J13" s="23">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -1043,10 +1132,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>25</v>
       </c>
     </row>
